--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Adam11</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H2">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I2">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J2">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1152986666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="N2">
-        <v>0.345896</v>
+        <v>0.225426</v>
       </c>
       <c r="O2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="P2">
-        <v>0.1156688842087241</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="Q2">
-        <v>0.02106026228888889</v>
+        <v>0.010383046418</v>
       </c>
       <c r="R2">
-        <v>0.1895423606</v>
+        <v>0.093447417762</v>
       </c>
       <c r="S2">
-        <v>0.005965486954829015</v>
+        <v>0.002015196629574116</v>
       </c>
       <c r="T2">
-        <v>0.005965486954829015</v>
+        <v>0.002015196629574116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H3">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I3">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J3">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +626,22 @@
         <v>1.502253</v>
       </c>
       <c r="O3">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="P3">
-        <v>0.5023588833325865</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="Q3">
-        <v>0.09146634307500001</v>
+        <v>0.069193272429</v>
       </c>
       <c r="R3">
-        <v>0.823197087675</v>
+        <v>0.622739451861</v>
       </c>
       <c r="S3">
-        <v>0.02590856984282198</v>
+        <v>0.01342939670831051</v>
       </c>
       <c r="T3">
-        <v>0.02590856984282198</v>
+        <v>0.01342939670831051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.138179</v>
+      </c>
+      <c r="H4">
+        <v>0.414537</v>
+      </c>
+      <c r="I4">
+        <v>0.03953416978071796</v>
+      </c>
+      <c r="J4">
+        <v>0.03953416978071796</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.1826583333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.547975</v>
-      </c>
-      <c r="I4">
-        <v>0.05157382640662736</v>
-      </c>
-      <c r="J4">
-        <v>0.05157382640662736</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.3807496666666667</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="N4">
-        <v>1.142249</v>
+        <v>1.37647</v>
       </c>
       <c r="O4">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="P4">
-        <v>0.3819722324586895</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="Q4">
-        <v>0.06954709953055556</v>
+        <v>0.06339974937666668</v>
       </c>
       <c r="R4">
-        <v>0.6259238957750001</v>
+        <v>0.57059774439</v>
       </c>
       <c r="S4">
-        <v>0.01969976960897636</v>
+        <v>0.012304959076193</v>
       </c>
       <c r="T4">
-        <v>0.01969976960897636</v>
+        <v>0.012304959076193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.138179</v>
+      </c>
+      <c r="H5">
+        <v>0.414537</v>
+      </c>
+      <c r="I5">
+        <v>0.03953416978071796</v>
+      </c>
+      <c r="J5">
+        <v>0.03953416978071796</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.325406</v>
-      </c>
-      <c r="H5">
-        <v>9.976217999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.9389328624967765</v>
-      </c>
-      <c r="J5">
-        <v>0.9389328624967767</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1152986666666667</v>
+        <v>0.4048450000000001</v>
       </c>
       <c r="N5">
-        <v>0.345896</v>
+        <v>1.214535</v>
       </c>
       <c r="O5">
-        <v>0.1156688842087241</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="P5">
-        <v>0.1156688842087241</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="Q5">
-        <v>0.3834148779253333</v>
+        <v>0.05594107725500001</v>
       </c>
       <c r="R5">
-        <v>3.450733901327999</v>
+        <v>0.5034696952950001</v>
       </c>
       <c r="S5">
-        <v>0.1086053165519055</v>
+        <v>0.01085734049532795</v>
       </c>
       <c r="T5">
-        <v>0.1086053165519055</v>
+        <v>0.01085734049532795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.325406</v>
+        <v>0.138179</v>
       </c>
       <c r="H6">
-        <v>9.976217999999999</v>
+        <v>0.414537</v>
       </c>
       <c r="I6">
-        <v>0.9389328624967765</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J6">
-        <v>0.9389328624967767</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5007510000000001</v>
+        <v>0.034576</v>
       </c>
       <c r="N6">
-        <v>1.502253</v>
+        <v>0.103728</v>
       </c>
       <c r="O6">
-        <v>0.5023588833325865</v>
+        <v>0.02345507383753481</v>
       </c>
       <c r="P6">
-        <v>0.5023588833325865</v>
+        <v>0.02345507383753481</v>
       </c>
       <c r="Q6">
-        <v>1.665200379906</v>
+        <v>0.004777677104000001</v>
       </c>
       <c r="R6">
-        <v>14.986803419154</v>
+        <v>0.042999093936</v>
       </c>
       <c r="S6">
-        <v>0.4716812643281497</v>
+        <v>0.0009272768713123772</v>
       </c>
       <c r="T6">
-        <v>0.4716812643281497</v>
+        <v>0.0009272768713123769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,45 +856,45 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I7">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J7">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3807496666666667</v>
+        <v>0.075142</v>
       </c>
       <c r="N7">
-        <v>1.142249</v>
+        <v>0.225426</v>
       </c>
       <c r="O7">
-        <v>0.3819722324586895</v>
+        <v>0.05097354113547087</v>
       </c>
       <c r="P7">
-        <v>0.3819722324586895</v>
+        <v>0.05097354113547086</v>
       </c>
       <c r="Q7">
-        <v>1.266147226031333</v>
+        <v>0.249877657652</v>
       </c>
       <c r="R7">
-        <v>11.395325034282</v>
+        <v>2.248898918868</v>
       </c>
       <c r="S7">
-        <v>0.3586462816167215</v>
+        <v>0.04849757896037417</v>
       </c>
       <c r="T7">
-        <v>0.3586462816167215</v>
+        <v>0.04849757896037417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +903,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.03362233333333333</v>
+        <v>3.325406</v>
       </c>
       <c r="H8">
-        <v>0.100867</v>
+        <v>9.976217999999999</v>
       </c>
       <c r="I8">
-        <v>0.009493311096596161</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J8">
-        <v>0.009493311096596162</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1152986666666667</v>
+        <v>0.5007510000000001</v>
       </c>
       <c r="N8">
-        <v>0.345896</v>
+        <v>1.502253</v>
       </c>
       <c r="O8">
-        <v>0.1156688842087241</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="P8">
-        <v>0.1156688842087241</v>
+        <v>0.3396908745725183</v>
       </c>
       <c r="Q8">
-        <v>0.003876610203555555</v>
+        <v>1.665200379906</v>
       </c>
       <c r="R8">
-        <v>0.034889491832</v>
+        <v>14.986803419154</v>
       </c>
       <c r="S8">
-        <v>0.001098080701989576</v>
+        <v>0.3231909073751873</v>
       </c>
       <c r="T8">
-        <v>0.001098080701989577</v>
+        <v>0.3231909073751874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.325406</v>
+      </c>
+      <c r="H9">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9514265220751211</v>
+      </c>
+      <c r="J9">
+        <v>0.9514265220751212</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.03362233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.100867</v>
-      </c>
-      <c r="I9">
-        <v>0.009493311096596161</v>
-      </c>
-      <c r="J9">
-        <v>0.009493311096596162</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>0.5007510000000001</v>
+        <v>0.4588233333333334</v>
       </c>
       <c r="N9">
-        <v>1.502253</v>
+        <v>1.37647</v>
       </c>
       <c r="O9">
-        <v>0.5023588833325865</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="P9">
-        <v>0.5023588833325865</v>
+        <v>0.3112487031963553</v>
       </c>
       <c r="Q9">
-        <v>0.016836417039</v>
+        <v>1.525773865606667</v>
       </c>
       <c r="R9">
-        <v>0.151527753351</v>
+        <v>13.73196479046</v>
       </c>
       <c r="S9">
-        <v>0.004769049161614899</v>
+        <v>0.2961302711825</v>
       </c>
       <c r="T9">
-        <v>0.0047690491616149</v>
+        <v>0.2961302711825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,22 +1030,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03362233333333333</v>
+        <v>3.325406</v>
       </c>
       <c r="H10">
-        <v>0.100867</v>
+        <v>9.976217999999999</v>
       </c>
       <c r="I10">
-        <v>0.009493311096596161</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J10">
-        <v>0.009493311096596162</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1054,400 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3807496666666667</v>
+        <v>0.4048450000000001</v>
       </c>
       <c r="N10">
-        <v>1.142249</v>
+        <v>1.214535</v>
       </c>
       <c r="O10">
-        <v>0.3819722324586895</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="P10">
-        <v>0.3819722324586895</v>
+        <v>0.2746318072581207</v>
       </c>
       <c r="Q10">
-        <v>0.01280169220922222</v>
+        <v>1.34627399207</v>
       </c>
       <c r="R10">
-        <v>0.115215229883</v>
+        <v>12.11646592863</v>
       </c>
       <c r="S10">
-        <v>0.003626181232991685</v>
+        <v>0.2612919852307988</v>
       </c>
       <c r="T10">
-        <v>0.003626181232991686</v>
+        <v>0.2612919852307988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.325406</v>
+      </c>
+      <c r="H11">
+        <v>9.976217999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.9514265220751211</v>
+      </c>
+      <c r="J11">
+        <v>0.9514265220751212</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.034576</v>
+      </c>
+      <c r="N11">
+        <v>0.103728</v>
+      </c>
+      <c r="O11">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P11">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q11">
+        <v>0.114979237856</v>
+      </c>
+      <c r="R11">
+        <v>1.034813140704</v>
+      </c>
+      <c r="S11">
+        <v>0.02231577932626091</v>
+      </c>
+      <c r="T11">
+        <v>0.02231577932626091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.031594</v>
+      </c>
+      <c r="H12">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J12">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.075142</v>
+      </c>
+      <c r="N12">
+        <v>0.225426</v>
+      </c>
+      <c r="O12">
+        <v>0.05097354113547087</v>
+      </c>
+      <c r="P12">
+        <v>0.05097354113547086</v>
+      </c>
+      <c r="Q12">
+        <v>0.002374036348</v>
+      </c>
+      <c r="R12">
+        <v>0.021366327132</v>
+      </c>
+      <c r="S12">
+        <v>0.0004607655455225803</v>
+      </c>
+      <c r="T12">
+        <v>0.0004607655455225803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.031594</v>
+      </c>
+      <c r="H13">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J13">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5007510000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.502253</v>
+      </c>
+      <c r="O13">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="P13">
+        <v>0.3396908745725183</v>
+      </c>
+      <c r="Q13">
+        <v>0.01582072709400001</v>
+      </c>
+      <c r="R13">
+        <v>0.142386543846</v>
+      </c>
+      <c r="S13">
+        <v>0.003070570489020489</v>
+      </c>
+      <c r="T13">
+        <v>0.003070570489020489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.031594</v>
+      </c>
+      <c r="H14">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J14">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4588233333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.37647</v>
+      </c>
+      <c r="O14">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="P14">
+        <v>0.3112487031963553</v>
+      </c>
+      <c r="Q14">
+        <v>0.01449606439333334</v>
+      </c>
+      <c r="R14">
+        <v>0.13046457954</v>
+      </c>
+      <c r="S14">
+        <v>0.00281347293766232</v>
+      </c>
+      <c r="T14">
+        <v>0.00281347293766232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.031594</v>
+      </c>
+      <c r="H15">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J15">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4048450000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.214535</v>
+      </c>
+      <c r="O15">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="P15">
+        <v>0.2746318072581207</v>
+      </c>
+      <c r="Q15">
+        <v>0.01279067293</v>
+      </c>
+      <c r="R15">
+        <v>0.11511605637</v>
+      </c>
+      <c r="S15">
+        <v>0.002482481531993945</v>
+      </c>
+      <c r="T15">
+        <v>0.002482481531993945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.031594</v>
+      </c>
+      <c r="H16">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J16">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.034576</v>
+      </c>
+      <c r="N16">
+        <v>0.103728</v>
+      </c>
+      <c r="O16">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="P16">
+        <v>0.02345507383753481</v>
+      </c>
+      <c r="Q16">
+        <v>0.001092394144</v>
+      </c>
+      <c r="R16">
+        <v>0.009831547296</v>
+      </c>
+      <c r="S16">
+        <v>0.0002120176399615227</v>
+      </c>
+      <c r="T16">
+        <v>0.0002120176399615227</v>
       </c>
     </row>
   </sheetData>
